--- a/download/Inscrypt2024-receipt.xlsx
+++ b/download/Inscrypt2024-receipt.xlsx
@@ -689,6 +689,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,6 +702,9 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -735,10 +739,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1051,8 +1051,8 @@
   </sheetPr>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,53 +1076,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="63" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="35" t="s">
@@ -1131,49 +1131,49 @@
       <c r="K2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="65" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="53" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="63"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="65"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1395,7 +1395,7 @@
     <row r="10" spans="1:24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="67"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -1403,16 +1403,16 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
@@ -1425,14 +1425,14 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="39"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:24" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
@@ -1445,16 +1445,16 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="58"/>
     </row>
     <row r="13" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
@@ -1467,16 +1467,16 @@
       <c r="H13" s="19"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
     </row>
     <row r="14" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
@@ -1489,14 +1489,14 @@
       <c r="H14" s="12"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
     </row>
     <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
@@ -1509,14 +1509,14 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
     </row>
     <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
@@ -1529,14 +1529,14 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
     </row>
     <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
@@ -1549,14 +1549,14 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
     </row>
     <row r="18" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
@@ -1571,14 +1571,14 @@
       <c r="H18" s="21"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
@@ -1590,14 +1590,14 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
@@ -1609,14 +1609,14 @@
       <c r="G20" s="24"/>
       <c r="I20" s="41"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
@@ -1628,14 +1628,14 @@
       <c r="H21" s="24"/>
       <c r="I21" s="42"/>
       <c r="J21" s="30"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
     </row>
     <row r="22" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
@@ -1721,11 +1721,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O8 R4:R8">
       <formula1>"Yes,No,Choose"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8">
+      <formula1>"Choose,Inscrypt&amp;SSR Author registration,Inscrypt&amp;SSR Participant Registration"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E8">
-      <formula1>"3900 CNY/550 USD,3500 CNY/490 USD,2500 CNY/360 USD,3300 CNY/470 USD,2100 CNY/300 USD,Sponsor,Choose"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8">
-      <formula1>"Choose,Inscrypt Author registration,Inscrypt Participant Registration,RSS Author Registration,RSS Participant Registration"</formula1>
+      <formula1>"4000 CNY/560 USD,3000 CNY/420 USD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/download/Inscrypt2024-receipt.xlsx
+++ b/download/Inscrypt2024-receipt.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$R$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$R$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>No.</t>
   </si>
@@ -77,19 +77,12 @@
     <t>Checkin Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Remit or Not
-</t>
-  </si>
-  <si>
     <t>（Only Value-added Tax Special Invoice）</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -102,14 +95,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Contact Us</t>
-  </si>
-  <si>
-    <t>Aug 10</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Payment receipt and registration form：Please email to inscrypt2024@163.com</t>
@@ -117,11 +103,6 @@
   </si>
   <si>
     <t>Shaowen Yao, Chun Guo（Conference registration）：inscrypt2024@163.com</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grand Mercure Qingdao Nanshan Resort, 协议价(大/双): 550 RMB/room, single breakfast. For double breakfast please inform the hotel and this is for free.                       
-To book hotel, please fill in this form and send to inscrypt2024@163.com, and we will reserve the room for you. Upon arriving the hotel, you just need to pay deposit to checkin.</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -157,6 +138,11 @@
       <t>, China, 650301)
 昆明玉龙湾湖景酒店，650301 云南省 昆明市 安宁太平新城玉龙湾康谷</t>
     </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lakeview Hotel Yulongwan Kunming, 协议价(大/双): 550 RMB/room, single breakfast. An additional breakfast costs 98 CNY.                       
+To book hotel, please fill in this form and send to inscrypt2024@163.com, and we will reserve the room for you. Upon arriving the hotel, you just need to pay deposit to checkin.</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -690,6 +676,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,21 +715,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,18 +726,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,10 +1035,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,53 +1062,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
+      <c r="A1" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="67" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="35" t="s">
@@ -1131,68 +1117,66 @@
       <c r="K2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="54"/>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="65"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="49"/>
       <c r="J4" s="37"/>
@@ -1200,37 +1184,35 @@
       <c r="L4" s="47"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
@@ -1238,37 +1220,35 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q5" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
@@ -1276,18 +1256,16 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="8"/>
       <c r="T6" s="44"/>
       <c r="U6" s="44"/>
       <c r="V6" s="44"/>
@@ -1296,22 +1274,22 @@
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
@@ -1319,166 +1297,146 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="Q7" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="45"/>
+    </row>
+    <row r="9" spans="1:24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="1:24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+    </row>
+    <row r="10" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
-    </row>
-    <row r="11" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+    </row>
+    <row r="11" spans="1:24" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="39"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
-    </row>
-    <row r="12" spans="1:24" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+    </row>
+    <row r="12" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
+      <c r="K12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
-      <c r="K13" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-    </row>
-    <row r="14" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+    </row>
+    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="18"/>
       <c r="C14" s="12"/>
@@ -1487,16 +1445,16 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
     </row>
     <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
@@ -1509,14 +1467,14 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
     </row>
     <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
@@ -1529,94 +1487,93 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-    </row>
-    <row r="18" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-    </row>
-    <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
@@ -1625,70 +1582,46 @@
       <c r="E21" s="31"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="42"/>
       <c r="J21" s="30"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="34"/>
-    </row>
-    <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="29"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="K13:R21"/>
-    <mergeCell ref="K10:R11"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="K11:R11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1702,30 +1635,35 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="K12:R20"/>
+    <mergeCell ref="K9:R10"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N7">
       <formula1>"Single (Big) Bed,Double-bed,Choose"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q8">
-      <formula1>"Aug 7,Aug 8,Aug 9, Aug 10,Aug 11, Aug 12, Aug 13, Aug 14,Choose"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="请点击下拉菜单选择" sqref="P4:P8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8">
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="请点击下拉菜单选择" sqref="P4:P7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7">
       <formula1>"Conference fee,Conference registration fee,Other（Please note details）,Choose"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7">
       <formula1>"Choose,Value-added Tax Special Invoice,Value-added Tax Invoice "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O8 R4:R8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O7 R4:R7">
       <formula1>"Yes,No,Choose"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7">
       <formula1>"Choose,Inscrypt&amp;SSR Author registration,Inscrypt&amp;SSR Participant Registration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7">
       <formula1>"4000 CNY/560 USD,3000 CNY/420 USD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q7">
+      <formula1>"13-Dec, 14-Dec, 15-Dec, 16-Dec, 17-Dec, Choose"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/download/Inscrypt2024-receipt.xlsx
+++ b/download/Inscrypt2024-receipt.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$R$17</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -676,12 +676,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -693,39 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1037,8 +1037,8 @@
   </sheetPr>
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:R20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1062,53 +1062,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="63" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="35" t="s">
@@ -1117,47 +1117,47 @@
       <c r="K2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="54"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="62" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="65"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1341,16 +1341,16 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="59"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -1363,14 +1363,14 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="59"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:24" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
@@ -1383,16 +1383,16 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="39"/>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="59"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
@@ -1405,16 +1405,16 @@
       <c r="H12" s="19"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
     </row>
     <row r="13" spans="1:24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
@@ -1427,14 +1427,14 @@
       <c r="H13" s="12"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
     </row>
     <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
@@ -1447,14 +1447,14 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
     </row>
     <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
@@ -1467,14 +1467,14 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
     </row>
     <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
@@ -1487,14 +1487,14 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
     </row>
     <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
@@ -1509,14 +1509,14 @@
       <c r="H17" s="21"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
     </row>
     <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
@@ -1528,14 +1528,14 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
@@ -1547,14 +1547,14 @@
       <c r="G19" s="24"/>
       <c r="I19" s="41"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
@@ -1566,14 +1566,14 @@
       <c r="H20" s="24"/>
       <c r="I20" s="42"/>
       <c r="J20" s="30"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
@@ -1619,6 +1619,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="K12:R20"/>
+    <mergeCell ref="K9:R10"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="K11:R11"/>
@@ -1635,11 +1640,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="K12:R20"/>
-    <mergeCell ref="K9:R10"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="8">
@@ -1659,11 +1659,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7">
       <formula1>"Choose,Inscrypt&amp;SSR Author registration,Inscrypt&amp;SSR Participant Registration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7">
-      <formula1>"4000 CNY/560 USD,3000 CNY/420 USD"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q7">
       <formula1>"13-Dec, 14-Dec, 15-Dec, 16-Dec, 17-Dec, Choose"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7">
+      <formula1>"3900 CNY/550 USD,3000 CNY/420 USD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
